--- a/Course work/CourseWork/Время на миниЭВМ.xlsx
+++ b/Course work/CourseWork/Время на миниЭВМ.xlsx
@@ -344,3074 +344,3074 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>25.923512762813164</v>
+        <v>0.4320585460468861</v>
       </c>
       <c r="B1" t="n">
-        <v>17.0</v>
+        <v>0.2833333333333333</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34.84702552562633</v>
+        <v>0.6762678395552248</v>
       </c>
       <c r="B2" t="n">
-        <v>17.0</v>
+        <v>0.2833333333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>42.92351276281316</v>
+        <v>0.7153918793802194</v>
       </c>
       <c r="B3" t="n">
-        <v>16.999999999999996</v>
+        <v>0.2833333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>51.84702552562633</v>
+        <v>0.9596011728885582</v>
       </c>
       <c r="B4" t="n">
-        <v>17.25632561420243</v>
+        <v>0.4131162717561181</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>59.92351276281316</v>
+        <v>0.9987252127135527</v>
       </c>
       <c r="B5" t="n">
-        <v>17.25632561420243</v>
+        <v>0.436233155701672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68.84702552562632</v>
+        <v>1.2429345062218915</v>
       </c>
       <c r="B6" t="n">
-        <v>24.229461711560504</v>
+        <v>0.4495434413942929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>76.92351276281316</v>
+        <v>1.282058546046886</v>
       </c>
       <c r="B7" t="n">
-        <v>26.43616399121803</v>
+        <v>0.457735530131684</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>85.84702552562632</v>
+        <v>1.5262678395552247</v>
       </c>
       <c r="B8" t="n">
-        <v>32.30594894874734</v>
+        <v>0.490829132506474</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>93.92351276281316</v>
+        <v>1.5653918793802193</v>
       </c>
       <c r="B9" t="n">
-        <v>23.63876180013662</v>
+        <v>0.5004574795577175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>102.84702552562632</v>
+        <v>1.809601172888558</v>
       </c>
       <c r="B10" t="n">
-        <v>31.45892342312102</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110.92351276281316</v>
+        <v>1.8487252127135525</v>
       </c>
       <c r="B11" t="n">
-        <v>30.6118978974947</v>
+        <v>0.5380189787504106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>119.84702552562632</v>
+        <v>2.092934506221891</v>
       </c>
       <c r="B12" t="n">
-        <v>22.7917362745103</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>127.92351276281316</v>
+        <v>2.1320585460468857</v>
       </c>
       <c r="B13" t="n">
-        <v>29.76487237186838</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>136.84702552562632</v>
+        <v>2.3762678395552244</v>
       </c>
       <c r="B14" t="n">
-        <v>29.76487237186838</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>144.92351276281317</v>
+        <v>2.415391879380219</v>
       </c>
       <c r="B15" t="n">
-        <v>28.91784684624207</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>153.84702552562632</v>
+        <v>2.6596011728885576</v>
       </c>
       <c r="B16" t="n">
-        <v>28.917846846242057</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>161.92351276281317</v>
+        <v>2.698725212713552</v>
       </c>
       <c r="B17" t="n">
-        <v>28.07082132061575</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>170.84702552562632</v>
+        <v>2.942934506221891</v>
       </c>
       <c r="B18" t="n">
-        <v>28.07082132061572</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>178.92351276281317</v>
+        <v>2.9820585460468854</v>
       </c>
       <c r="B19" t="n">
-        <v>27.2237957949894</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>187.84702552562632</v>
+        <v>3.226267839555224</v>
       </c>
       <c r="B20" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>195.92351276281317</v>
+        <v>3.2653918793802186</v>
       </c>
       <c r="B21" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>204.84702552562632</v>
+        <v>3.509601172888557</v>
       </c>
       <c r="B22" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>212.92351276281317</v>
+        <v>3.548725212713552</v>
       </c>
       <c r="B23" t="n">
-        <v>26.63309588356546</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>221.84702552562632</v>
+        <v>3.7929345062218904</v>
       </c>
       <c r="B24" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>229.92351276281317</v>
+        <v>3.832058546046885</v>
       </c>
       <c r="B25" t="n">
-        <v>33.606231980923525</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>238.84702552562632</v>
+        <v>4.076267839555224</v>
       </c>
       <c r="B26" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666669</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>246.92351276281317</v>
+        <v>4.115391879380218</v>
       </c>
       <c r="B27" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>255.84702552562632</v>
+        <v>4.359601172888557</v>
       </c>
       <c r="B28" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666669</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>263.9235127628132</v>
+        <v>4.398725212713551</v>
       </c>
       <c r="B29" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>272.84702552562635</v>
+        <v>4.682058546046885</v>
       </c>
       <c r="B30" t="n">
-        <v>34.00000000000003</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>280.9235127628132</v>
+        <v>4.682058546046885</v>
       </c>
       <c r="B31" t="n">
-        <v>34.0</v>
+        <v>0.6057907064916606</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>289.84702552562635</v>
+        <v>4.965391879380218</v>
       </c>
       <c r="B32" t="n">
-        <v>34.00000000000003</v>
+        <v>0.6057907064916606</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>297.9235127628132</v>
+        <v>4.965391879380218</v>
       </c>
       <c r="B33" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>306.84702552562635</v>
+        <v>5.248725212713551</v>
       </c>
       <c r="B34" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>314.9235127628132</v>
+        <v>5.248725212713551</v>
       </c>
       <c r="B35" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>323.84702552562635</v>
+        <v>5.532058546046884</v>
       </c>
       <c r="B36" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>331.9235127628132</v>
+        <v>5.532058546046884</v>
       </c>
       <c r="B37" t="n">
-        <v>34.0</v>
+        <v>0.4479170513362405</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>340.84702552562635</v>
+        <v>5.8153918793802175</v>
       </c>
       <c r="B38" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>348.9235127628132</v>
+        <v>5.8153918793802175</v>
       </c>
       <c r="B39" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>357.84702552562635</v>
+        <v>6.098725212713551</v>
       </c>
       <c r="B40" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>365.9235127628132</v>
+        <v>6.098725212713551</v>
       </c>
       <c r="B41" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>374.84702552562635</v>
+        <v>6.382058546046884</v>
       </c>
       <c r="B42" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>382.9235127628132</v>
+        <v>6.382058546046884</v>
       </c>
       <c r="B43" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>391.84702552562635</v>
+        <v>6.665391879380217</v>
       </c>
       <c r="B44" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>399.9235127628132</v>
+        <v>6.665391879380217</v>
       </c>
       <c r="B45" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>408.84702552562635</v>
+        <v>6.94872521271355</v>
       </c>
       <c r="B46" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>416.9235127628132</v>
+        <v>6.94872521271355</v>
       </c>
       <c r="B47" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>425.84702552562635</v>
+        <v>7.232058546046884</v>
       </c>
       <c r="B48" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>433.9235127628132</v>
+        <v>7.232058546046884</v>
       </c>
       <c r="B49" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>442.84702552562635</v>
+        <v>7.515391879380217</v>
       </c>
       <c r="B50" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>450.9235127628132</v>
+        <v>7.515391879380217</v>
       </c>
       <c r="B51" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>459.84702552562635</v>
+        <v>7.79872521271355</v>
       </c>
       <c r="B52" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>467.9235127628132</v>
+        <v>7.79872521271355</v>
       </c>
       <c r="B53" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>476.84702552562635</v>
+        <v>8.082058546046884</v>
       </c>
       <c r="B54" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666673</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>484.9235127628132</v>
+        <v>8.082058546046884</v>
       </c>
       <c r="B55" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666673</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>493.84702552562635</v>
+        <v>8.365391879380217</v>
       </c>
       <c r="B56" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666673</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>501.9235127628132</v>
+        <v>8.365391879380217</v>
       </c>
       <c r="B57" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666673</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>510.84702552562635</v>
+        <v>8.64872521271355</v>
       </c>
       <c r="B58" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>518.9235127628132</v>
+        <v>8.64872521271355</v>
       </c>
       <c r="B59" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>527.8470255256263</v>
+        <v>8.932058546046884</v>
       </c>
       <c r="B60" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>535.9235127628132</v>
+        <v>8.932058546046884</v>
       </c>
       <c r="B61" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>544.8470255256263</v>
+        <v>9.215391879380217</v>
       </c>
       <c r="B62" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>552.9235127628132</v>
+        <v>9.215391879380217</v>
       </c>
       <c r="B63" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>561.8470255256263</v>
+        <v>9.49872521271355</v>
       </c>
       <c r="B64" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>569.9235127628132</v>
+        <v>9.49872521271355</v>
       </c>
       <c r="B65" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>578.8470255256263</v>
+        <v>9.782058546046883</v>
       </c>
       <c r="B66" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>586.9235127628132</v>
+        <v>9.782058546046883</v>
       </c>
       <c r="B67" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>595.8470255256263</v>
+        <v>10.065391879380217</v>
       </c>
       <c r="B68" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>603.9235127628132</v>
+        <v>10.065391879380217</v>
       </c>
       <c r="B69" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>612.8470255256263</v>
+        <v>10.34872521271355</v>
       </c>
       <c r="B70" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>620.9235127628132</v>
+        <v>10.34872521271355</v>
       </c>
       <c r="B71" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>629.8470255256263</v>
+        <v>10.632058546046883</v>
       </c>
       <c r="B72" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>637.9235127628132</v>
+        <v>10.632058546046883</v>
       </c>
       <c r="B73" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>646.8470255256263</v>
+        <v>10.915391879380216</v>
       </c>
       <c r="B74" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>654.9235127628132</v>
+        <v>10.915391879380216</v>
       </c>
       <c r="B75" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>663.8470255256263</v>
+        <v>11.19872521271355</v>
       </c>
       <c r="B76" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>671.9235127628132</v>
+        <v>11.19872521271355</v>
       </c>
       <c r="B77" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>680.8470255256263</v>
+        <v>11.482058546046883</v>
       </c>
       <c r="B78" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>688.9235127628132</v>
+        <v>11.482058546046883</v>
       </c>
       <c r="B79" t="n">
-        <v>34.0</v>
+        <v>0.4430406127184128</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>697.8470255256263</v>
+        <v>11.765391879380216</v>
       </c>
       <c r="B80" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>705.9235127628132</v>
+        <v>12.04872521271355</v>
       </c>
       <c r="B81" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>714.8470255256263</v>
+        <v>12.04872521271355</v>
       </c>
       <c r="B82" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999996</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>722.9235127628132</v>
+        <v>12.332058546046882</v>
       </c>
       <c r="B83" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>731.8470255256263</v>
+        <v>12.332058546046882</v>
       </c>
       <c r="B84" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999996</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>739.9235127628132</v>
+        <v>12.615391879380216</v>
       </c>
       <c r="B85" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>748.8470255256263</v>
+        <v>12.615391879380216</v>
       </c>
       <c r="B86" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>756.9235127628132</v>
+        <v>12.898725212713549</v>
       </c>
       <c r="B87" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>765.8470255256263</v>
+        <v>12.898725212713549</v>
       </c>
       <c r="B88" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>773.9235127628132</v>
+        <v>13.182058546046882</v>
       </c>
       <c r="B89" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>782.8470255256263</v>
+        <v>13.182058546046882</v>
       </c>
       <c r="B90" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>790.9235127628132</v>
+        <v>13.465391879380215</v>
       </c>
       <c r="B91" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>799.8470255256263</v>
+        <v>13.465391879380215</v>
       </c>
       <c r="B92" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>807.9235127628132</v>
+        <v>13.748725212713548</v>
       </c>
       <c r="B93" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>816.8470255256263</v>
+        <v>13.748725212713548</v>
       </c>
       <c r="B94" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>824.9235127628132</v>
+        <v>14.032058546046882</v>
       </c>
       <c r="B95" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>833.8470255256263</v>
+        <v>14.315391879380215</v>
       </c>
       <c r="B96" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>841.9235127628132</v>
+        <v>14.315391879380215</v>
       </c>
       <c r="B97" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999996</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>850.8470255256263</v>
+        <v>14.598725212713548</v>
       </c>
       <c r="B98" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999996</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>858.9235127628132</v>
+        <v>14.598725212713548</v>
       </c>
       <c r="B99" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>867.8470255256263</v>
+        <v>14.882058546046881</v>
       </c>
       <c r="B100" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>875.9235127628132</v>
+        <v>14.882058546046881</v>
       </c>
       <c r="B101" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>884.8470255256263</v>
+        <v>15.165391879380214</v>
       </c>
       <c r="B102" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>892.9235127628132</v>
+        <v>15.448725212713548</v>
       </c>
       <c r="B103" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>901.8470255256263</v>
+        <v>15.448725212713548</v>
       </c>
       <c r="B104" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999996</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>909.9235127628132</v>
+        <v>15.732058546046881</v>
       </c>
       <c r="B105" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999996</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>918.8470255256263</v>
+        <v>15.732058546046881</v>
       </c>
       <c r="B106" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>926.9235127628132</v>
+        <v>16.015391879380214</v>
       </c>
       <c r="B107" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>935.8470255256263</v>
+        <v>16.015391879380214</v>
       </c>
       <c r="B108" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>943.9235127628132</v>
+        <v>16.29872521271355</v>
       </c>
       <c r="B109" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666682</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>952.8470255256263</v>
+        <v>16.29872521271355</v>
       </c>
       <c r="B110" t="n">
-        <v>34.0</v>
+        <v>0.4326302051626705</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>960.9235127628132</v>
+        <v>16.582058546046884</v>
       </c>
       <c r="B111" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>969.8470255256263</v>
+        <v>16.582058546046884</v>
       </c>
       <c r="B112" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>977.9235127628132</v>
+        <v>16.86539187938022</v>
       </c>
       <c r="B113" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>986.8470255256263</v>
+        <v>16.86539187938022</v>
       </c>
       <c r="B114" t="n">
-        <v>34.0</v>
+        <v>0.4290338378248819</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>994.9235127628132</v>
+        <v>17.148725212713554</v>
       </c>
       <c r="B115" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1003.8470255256263</v>
+        <v>17.148725212713554</v>
       </c>
       <c r="B116" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1011.9235127628132</v>
+        <v>17.43205854604689</v>
       </c>
       <c r="B117" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1020.8470255256263</v>
+        <v>17.43205854604689</v>
       </c>
       <c r="B118" t="n">
-        <v>34.0</v>
+        <v>0.42078473621657153</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1028.923512762813</v>
+        <v>17.715391879380224</v>
       </c>
       <c r="B119" t="n">
-        <v>33.999999999999886</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1037.8470255256263</v>
+        <v>17.715391879380224</v>
       </c>
       <c r="B120" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1045.923512762813</v>
+        <v>17.99872521271356</v>
       </c>
       <c r="B121" t="n">
-        <v>33.999999999999886</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1054.8470255256263</v>
+        <v>17.99872521271356</v>
       </c>
       <c r="B122" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1062.923512762813</v>
+        <v>18.282058546046894</v>
       </c>
       <c r="B123" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1071.8470255256263</v>
+        <v>18.282058546046894</v>
       </c>
       <c r="B124" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1079.923512762813</v>
+        <v>18.56539187938023</v>
       </c>
       <c r="B125" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1088.8470255256263</v>
+        <v>18.56539187938023</v>
       </c>
       <c r="B126" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1096.923512762813</v>
+        <v>18.848725212713564</v>
       </c>
       <c r="B127" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1105.8470255256263</v>
+        <v>18.848725212713564</v>
       </c>
       <c r="B128" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1113.923512762813</v>
+        <v>19.1320585460469</v>
       </c>
       <c r="B129" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1122.8470255256263</v>
+        <v>19.1320585460469</v>
       </c>
       <c r="B130" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1130.923512762813</v>
+        <v>19.415391879380234</v>
       </c>
       <c r="B131" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1139.8470255256263</v>
+        <v>19.415391879380234</v>
       </c>
       <c r="B132" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1147.923512762813</v>
+        <v>19.69872521271357</v>
       </c>
       <c r="B133" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1156.8470255256263</v>
+        <v>19.69872521271357</v>
       </c>
       <c r="B134" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1164.923512762813</v>
+        <v>19.982058546046904</v>
       </c>
       <c r="B135" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1173.8470255256263</v>
+        <v>19.982058546046904</v>
       </c>
       <c r="B136" t="n">
-        <v>34.0</v>
+        <v>0.43888407481851033</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1181.923512762813</v>
+        <v>20.26539187938024</v>
       </c>
       <c r="B137" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1190.8470255256263</v>
+        <v>20.26539187938024</v>
       </c>
       <c r="B138" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1198.923512762813</v>
+        <v>20.548725212713574</v>
       </c>
       <c r="B139" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1207.8470255256263</v>
+        <v>20.548725212713574</v>
       </c>
       <c r="B140" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1215.923512762813</v>
+        <v>20.83205854604691</v>
       </c>
       <c r="B141" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1224.8470255256263</v>
+        <v>20.83205854604691</v>
       </c>
       <c r="B142" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1232.923512762813</v>
+        <v>21.115391879380244</v>
       </c>
       <c r="B143" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1241.8470255256263</v>
+        <v>21.115391879380244</v>
       </c>
       <c r="B144" t="n">
-        <v>34.0</v>
+        <v>0.44807533559044543</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1249.923512762813</v>
+        <v>21.39872521271358</v>
       </c>
       <c r="B145" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1258.8470255256263</v>
+        <v>21.39872521271358</v>
       </c>
       <c r="B146" t="n">
-        <v>34.0</v>
+        <v>0.4445312694064931</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1266.923512762813</v>
+        <v>21.682058546046914</v>
       </c>
       <c r="B147" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1275.8470255256263</v>
+        <v>21.682058546046914</v>
       </c>
       <c r="B148" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1283.923512762813</v>
+        <v>21.96539187938025</v>
       </c>
       <c r="B149" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1292.8470255256263</v>
+        <v>21.96539187938025</v>
       </c>
       <c r="B150" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1300.923512762813</v>
+        <v>22.248725212713584</v>
       </c>
       <c r="B151" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1309.8470255256263</v>
+        <v>22.248725212713584</v>
       </c>
       <c r="B152" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1317.923512762813</v>
+        <v>22.53205854604692</v>
       </c>
       <c r="B153" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1326.8470255256263</v>
+        <v>22.53205854604692</v>
       </c>
       <c r="B154" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1334.923512762813</v>
+        <v>22.815391879380254</v>
       </c>
       <c r="B155" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1343.8470255256263</v>
+        <v>22.815391879380254</v>
       </c>
       <c r="B156" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1351.923512762813</v>
+        <v>23.09872521271359</v>
       </c>
       <c r="B157" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1360.8470255256263</v>
+        <v>23.09872521271359</v>
       </c>
       <c r="B158" t="n">
-        <v>34.0</v>
+        <v>0.5540991845533014</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1368.923512762813</v>
+        <v>23.382058546046924</v>
       </c>
       <c r="B159" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1385.923512762813</v>
+        <v>23.382058546046924</v>
       </c>
       <c r="B160" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1385.923512762813</v>
+        <v>23.66539187938026</v>
       </c>
       <c r="B161" t="n">
-        <v>42.07648723718671</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1402.923512762813</v>
+        <v>23.66539187938026</v>
       </c>
       <c r="B162" t="n">
-        <v>42.07648723718671</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1402.923512762813</v>
+        <v>23.948725212713594</v>
       </c>
       <c r="B163" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1419.923512762813</v>
+        <v>23.948725212713594</v>
       </c>
       <c r="B164" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1419.923512762813</v>
+        <v>24.23205854604693</v>
       </c>
       <c r="B165" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1436.923512762813</v>
+        <v>24.23205854604693</v>
       </c>
       <c r="B166" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1436.923512762813</v>
+        <v>24.515391879380264</v>
       </c>
       <c r="B167" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1453.923512762813</v>
+        <v>24.7987252127136</v>
       </c>
       <c r="B168" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1453.923512762813</v>
+        <v>24.7987252127136</v>
       </c>
       <c r="B169" t="n">
-        <v>34.0</v>
+        <v>0.850000000000005</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1470.923512762813</v>
+        <v>25.082058546046934</v>
       </c>
       <c r="B170" t="n">
-        <v>34.0</v>
+        <v>0.850000000000005</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1470.923512762813</v>
+        <v>25.082058546046934</v>
       </c>
       <c r="B171" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1487.923512762813</v>
+        <v>25.36539187938027</v>
       </c>
       <c r="B172" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1487.923512762813</v>
+        <v>25.648725212713604</v>
       </c>
       <c r="B173" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1504.923512762813</v>
+        <v>25.648725212713604</v>
       </c>
       <c r="B174" t="n">
-        <v>34.0</v>
+        <v>0.850000000000005</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1504.923512762813</v>
+        <v>25.93205854604694</v>
       </c>
       <c r="B175" t="n">
-        <v>34.0</v>
+        <v>0.850000000000005</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1521.923512762813</v>
+        <v>25.93205854604694</v>
       </c>
       <c r="B176" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1521.923512762813</v>
+        <v>26.215391879380274</v>
       </c>
       <c r="B177" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1538.923512762813</v>
+        <v>26.215391879380274</v>
       </c>
       <c r="B178" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1538.923512762813</v>
+        <v>26.49872521271361</v>
       </c>
       <c r="B179" t="n">
-        <v>26.179838377015585</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1555.923512762813</v>
+        <v>26.49872521271361</v>
       </c>
       <c r="B180" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1555.923512762813</v>
+        <v>26.782058546046944</v>
       </c>
       <c r="B181" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1572.923512762813</v>
+        <v>26.782058546046944</v>
       </c>
       <c r="B182" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1572.923512762813</v>
+        <v>27.06539187938028</v>
       </c>
       <c r="B183" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1589.923512762813</v>
+        <v>27.348725212713614</v>
       </c>
       <c r="B184" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1589.923512762813</v>
+        <v>27.348725212713614</v>
       </c>
       <c r="B185" t="n">
-        <v>34.0</v>
+        <v>0.850000000000005</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1606.923512762813</v>
+        <v>27.63205854604695</v>
       </c>
       <c r="B186" t="n">
-        <v>34.0</v>
+        <v>0.850000000000005</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1606.923512762813</v>
+        <v>27.63205854604695</v>
       </c>
       <c r="B187" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1623.923512762813</v>
+        <v>27.915391879380284</v>
       </c>
       <c r="B188" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1623.923512762813</v>
+        <v>27.915391879380284</v>
       </c>
       <c r="B189" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1640.923512762813</v>
+        <v>28.19872521271362</v>
       </c>
       <c r="B190" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1640.923512762813</v>
+        <v>28.19872521271362</v>
       </c>
       <c r="B191" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1657.923512762813</v>
+        <v>28.482058546046954</v>
       </c>
       <c r="B192" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>1657.923512762813</v>
+        <v>28.482058546046954</v>
       </c>
       <c r="B193" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1674.923512762813</v>
+        <v>28.76539187938029</v>
       </c>
       <c r="B194" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>1674.923512762813</v>
+        <v>29.048725212713624</v>
       </c>
       <c r="B195" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1691.923512762813</v>
+        <v>29.048725212713624</v>
       </c>
       <c r="B196" t="n">
-        <v>34.0</v>
+        <v>0.850000000000005</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>1691.923512762813</v>
+        <v>29.33205854604696</v>
       </c>
       <c r="B197" t="n">
-        <v>34.0</v>
+        <v>0.850000000000005</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1708.923512762813</v>
+        <v>29.33205854604696</v>
       </c>
       <c r="B198" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1708.923512762813</v>
+        <v>29.615391879380294</v>
       </c>
       <c r="B199" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1725.923512762813</v>
+        <v>29.615391879380294</v>
       </c>
       <c r="B200" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>1725.923512762813</v>
+        <v>29.89872521271363</v>
       </c>
       <c r="B201" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>1742.923512762813</v>
+        <v>29.89872521271363</v>
       </c>
       <c r="B202" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1742.923512762813</v>
+        <v>30.182058546046964</v>
       </c>
       <c r="B203" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>1759.923512762813</v>
+        <v>30.182058546046964</v>
       </c>
       <c r="B204" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1759.923512762813</v>
+        <v>30.4653918793803</v>
       </c>
       <c r="B205" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1776.923512762813</v>
+        <v>30.4653918793803</v>
       </c>
       <c r="B206" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1776.923512762813</v>
+        <v>30.748725212713634</v>
       </c>
       <c r="B207" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1793.923512762813</v>
+        <v>30.748725212713634</v>
       </c>
       <c r="B208" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1793.923512762813</v>
+        <v>31.03205854604697</v>
       </c>
       <c r="B209" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1810.923512762813</v>
+        <v>31.03205854604697</v>
       </c>
       <c r="B210" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1810.923512762813</v>
+        <v>31.315391879380304</v>
       </c>
       <c r="B211" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1827.923512762813</v>
+        <v>31.315391879380304</v>
       </c>
       <c r="B212" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>1827.923512762813</v>
+        <v>31.59872521271364</v>
       </c>
       <c r="B213" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>1844.923512762813</v>
+        <v>31.59872521271364</v>
       </c>
       <c r="B214" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1844.923512762813</v>
+        <v>31.882058546046974</v>
       </c>
       <c r="B215" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>1861.923512762813</v>
+        <v>31.882058546046974</v>
       </c>
       <c r="B216" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>1861.923512762813</v>
+        <v>32.16539187938031</v>
       </c>
       <c r="B217" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1878.923512762813</v>
+        <v>32.16539187938031</v>
       </c>
       <c r="B218" t="n">
-        <v>34.0</v>
+        <v>0.56666666666667</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>1878.923512762813</v>
+        <v>32.44872521271364</v>
       </c>
       <c r="B219" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1895.923512762813</v>
+        <v>32.44872521271364</v>
       </c>
       <c r="B220" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666664</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1895.923512762813</v>
+        <v>32.73205854604697</v>
       </c>
       <c r="B221" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>1912.923512762813</v>
+        <v>32.73205854604697</v>
       </c>
       <c r="B222" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>1912.923512762813</v>
+        <v>33.0153918793803</v>
       </c>
       <c r="B223" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1929.923512762813</v>
+        <v>33.0153918793803</v>
       </c>
       <c r="B224" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>1929.923512762813</v>
+        <v>33.298725212713634</v>
       </c>
       <c r="B225" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1946.923512762813</v>
+        <v>33.582058546046966</v>
       </c>
       <c r="B226" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1946.923512762813</v>
+        <v>33.582058546046966</v>
       </c>
       <c r="B227" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999943</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1963.923512762813</v>
+        <v>33.8653918793803</v>
       </c>
       <c r="B228" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999943</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>1963.923512762813</v>
+        <v>33.8653918793803</v>
       </c>
       <c r="B229" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1980.923512762813</v>
+        <v>34.14872521271363</v>
       </c>
       <c r="B230" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1980.923512762813</v>
+        <v>34.14872521271363</v>
       </c>
       <c r="B231" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1997.923512762813</v>
+        <v>34.43205854604696</v>
       </c>
       <c r="B232" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1997.923512762813</v>
+        <v>34.43205854604696</v>
       </c>
       <c r="B233" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2014.923512762813</v>
+        <v>34.71539187938029</v>
       </c>
       <c r="B234" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2014.923512762813</v>
+        <v>34.71539187938029</v>
       </c>
       <c r="B235" t="n">
-        <v>26.179838377015585</v>
+        <v>0.438179213496511</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2031.923512762813</v>
+        <v>34.99872521271362</v>
       </c>
       <c r="B236" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>2031.923512762813</v>
+        <v>34.99872521271362</v>
       </c>
       <c r="B237" t="n">
-        <v>34.0</v>
+        <v>0.42129346883943697</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2048.923512762813</v>
+        <v>35.282058546046954</v>
       </c>
       <c r="B238" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>2048.923512762813</v>
+        <v>35.282058546046954</v>
       </c>
       <c r="B239" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2065.923512762813</v>
+        <v>35.565391879380286</v>
       </c>
       <c r="B240" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2065.923512762813</v>
+        <v>35.565391879380286</v>
       </c>
       <c r="B241" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2082.923512762813</v>
+        <v>35.84872521271362</v>
       </c>
       <c r="B242" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2082.923512762813</v>
+        <v>35.84872521271362</v>
       </c>
       <c r="B243" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2099.923512762813</v>
+        <v>36.13205854604695</v>
       </c>
       <c r="B244" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2099.923512762813</v>
+        <v>36.13205854604695</v>
       </c>
       <c r="B245" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2116.923512762813</v>
+        <v>36.41539187938028</v>
       </c>
       <c r="B246" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2116.923512762813</v>
+        <v>36.41539187938028</v>
       </c>
       <c r="B247" t="n">
-        <v>26.179838377015585</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2133.923512762813</v>
+        <v>36.69872521271361</v>
       </c>
       <c r="B248" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2133.923512762813</v>
+        <v>36.69872521271361</v>
       </c>
       <c r="B249" t="n">
-        <v>34.0</v>
+        <v>0.44191554109615083</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2150.923512762813</v>
+        <v>36.98205854604694</v>
       </c>
       <c r="B250" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2150.923512762813</v>
+        <v>36.98205854604694</v>
       </c>
       <c r="B251" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2167.923512762813</v>
+        <v>37.265391879380275</v>
       </c>
       <c r="B252" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2167.923512762813</v>
+        <v>37.548725212713606</v>
       </c>
       <c r="B253" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2184.923512762813</v>
+        <v>37.548725212713606</v>
       </c>
       <c r="B254" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999943</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2184.923512762813</v>
+        <v>37.83205854604694</v>
       </c>
       <c r="B255" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999943</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2201.923512762813</v>
+        <v>37.83205854604694</v>
       </c>
       <c r="B256" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>2201.923512762813</v>
+        <v>38.11539187938027</v>
       </c>
       <c r="B257" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2218.923512762813</v>
+        <v>38.11539187938027</v>
       </c>
       <c r="B258" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2218.923512762813</v>
+        <v>38.3987252127136</v>
       </c>
       <c r="B259" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>2235.923512762813</v>
+        <v>38.3987252127136</v>
       </c>
       <c r="B260" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2235.923512762813</v>
+        <v>38.68205854604693</v>
       </c>
       <c r="B261" t="n">
-        <v>26.179838377015585</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2252.923512762813</v>
+        <v>38.68205854604693</v>
       </c>
       <c r="B262" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>2252.923512762813</v>
+        <v>38.96539187938026</v>
       </c>
       <c r="B263" t="n">
-        <v>34.0</v>
+        <v>0.528069101918824</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2269.923512762813</v>
+        <v>39.248725212713595</v>
       </c>
       <c r="B264" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>2269.923512762813</v>
+        <v>39.248725212713595</v>
       </c>
       <c r="B265" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999943</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2286.923512762813</v>
+        <v>39.532058546046926</v>
       </c>
       <c r="B266" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999943</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2286.923512762813</v>
+        <v>39.532058546046926</v>
       </c>
       <c r="B267" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2303.923512762813</v>
+        <v>39.81539187938026</v>
       </c>
       <c r="B268" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2303.923512762813</v>
+        <v>39.81539187938026</v>
       </c>
       <c r="B269" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>2320.923512762813</v>
+        <v>40.34293450622192</v>
       </c>
       <c r="B270" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2320.923512762813</v>
+        <v>40.34293450622192</v>
       </c>
       <c r="B271" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2337.923512762813</v>
+        <v>40.626267839555254</v>
       </c>
       <c r="B272" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2337.923512762813</v>
+        <v>40.626267839555254</v>
       </c>
       <c r="B273" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2354.923512762813</v>
+        <v>40.909601172888586</v>
       </c>
       <c r="B274" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2354.923512762813</v>
+        <v>40.909601172888586</v>
       </c>
       <c r="B275" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2371.923512762813</v>
+        <v>41.19293450622192</v>
       </c>
       <c r="B276" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2371.923512762813</v>
+        <v>41.19293450622192</v>
       </c>
       <c r="B277" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2388.923512762813</v>
+        <v>41.47626783955525</v>
       </c>
       <c r="B278" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2388.923512762813</v>
+        <v>41.47626783955525</v>
       </c>
       <c r="B279" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2405.923512762813</v>
+        <v>41.75960117288858</v>
       </c>
       <c r="B280" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2405.923512762813</v>
+        <v>42.04293450622191</v>
       </c>
       <c r="B281" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2422.923512762813</v>
+        <v>42.04293450622191</v>
       </c>
       <c r="B282" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999943</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2422.923512762813</v>
+        <v>42.32626783955524</v>
       </c>
       <c r="B283" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999943</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2439.923512762813</v>
+        <v>42.32626783955524</v>
       </c>
       <c r="B284" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2439.923512762813</v>
+        <v>42.609601172888574</v>
       </c>
       <c r="B285" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2456.923512762813</v>
+        <v>42.609601172888574</v>
       </c>
       <c r="B286" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2456.923512762813</v>
+        <v>42.892934506221906</v>
       </c>
       <c r="B287" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2473.923512762813</v>
+        <v>42.892934506221906</v>
       </c>
       <c r="B288" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2473.923512762813</v>
+        <v>43.17626783955524</v>
       </c>
       <c r="B289" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2490.923512762813</v>
+        <v>43.17626783955524</v>
       </c>
       <c r="B290" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2490.923512762813</v>
+        <v>43.45960117288857</v>
       </c>
       <c r="B291" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2507.923512762813</v>
+        <v>43.45960117288857</v>
       </c>
       <c r="B292" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2524.923512762813</v>
+        <v>43.7429345062219</v>
       </c>
       <c r="B293" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>2524.923512762813</v>
+        <v>43.7429345062219</v>
       </c>
       <c r="B294" t="n">
-        <v>51.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2541.923512762813</v>
+        <v>44.02626783955523</v>
       </c>
       <c r="B295" t="n">
-        <v>51.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2541.923512762813</v>
+        <v>44.02626783955523</v>
       </c>
       <c r="B296" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2558.923512762813</v>
+        <v>44.30960117288856</v>
       </c>
       <c r="B297" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2558.923512762813</v>
+        <v>44.30960117288856</v>
       </c>
       <c r="B298" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2575.923512762813</v>
+        <v>44.592934506221894</v>
       </c>
       <c r="B299" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2575.923512762813</v>
+        <v>44.592934506221894</v>
       </c>
       <c r="B300" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2592.923512762813</v>
+        <v>44.876267839555226</v>
       </c>
       <c r="B301" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2592.923512762813</v>
+        <v>44.876267839555226</v>
       </c>
       <c r="B302" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2609.923512762813</v>
+        <v>45.15960117288856</v>
       </c>
       <c r="B303" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2609.923512762813</v>
+        <v>45.15960117288856</v>
       </c>
       <c r="B304" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2626.923512762813</v>
+        <v>45.44293450622189</v>
       </c>
       <c r="B305" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2626.923512762813</v>
+        <v>45.44293450622189</v>
       </c>
       <c r="B306" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2643.923512762813</v>
+        <v>45.72626783955522</v>
       </c>
       <c r="B307" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2643.923512762813</v>
+        <v>45.72626783955522</v>
       </c>
       <c r="B308" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2660.923512762813</v>
+        <v>46.00960117288855</v>
       </c>
       <c r="B309" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2660.923512762813</v>
+        <v>46.00960117288855</v>
       </c>
       <c r="B310" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2677.923512762813</v>
+        <v>46.29293450622188</v>
       </c>
       <c r="B311" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>2677.923512762813</v>
+        <v>46.29293450622188</v>
       </c>
       <c r="B312" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2694.923512762813</v>
+        <v>46.576267839555214</v>
       </c>
       <c r="B313" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2694.923512762813</v>
+        <v>46.576267839555214</v>
       </c>
       <c r="B314" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2711.923512762813</v>
+        <v>46.859601172888546</v>
       </c>
       <c r="B315" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2711.923512762813</v>
+        <v>46.859601172888546</v>
       </c>
       <c r="B316" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2728.923512762813</v>
+        <v>47.14293450622188</v>
       </c>
       <c r="B317" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2728.923512762813</v>
+        <v>47.14293450622188</v>
       </c>
       <c r="B318" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>2745.923512762813</v>
+        <v>47.42626783955521</v>
       </c>
       <c r="B319" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>2745.923512762813</v>
+        <v>47.42626783955521</v>
       </c>
       <c r="B320" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2762.923512762813</v>
+        <v>47.70960117288854</v>
       </c>
       <c r="B321" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>2762.923512762813</v>
+        <v>47.70960117288854</v>
       </c>
       <c r="B322" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2779.923512762813</v>
+        <v>47.99293450622187</v>
       </c>
       <c r="B323" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2779.923512762813</v>
+        <v>48.2762678395552</v>
       </c>
       <c r="B324" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2796.923512762813</v>
+        <v>48.2762678395552</v>
       </c>
       <c r="B325" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999943</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2796.923512762813</v>
+        <v>48.559601172888534</v>
       </c>
       <c r="B326" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2813.923512762813</v>
+        <v>48.559601172888534</v>
       </c>
       <c r="B327" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999943</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2813.923512762813</v>
+        <v>48.842934506221866</v>
       </c>
       <c r="B328" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2830.923512762813</v>
+        <v>48.842934506221866</v>
       </c>
       <c r="B329" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2830.923512762813</v>
+        <v>49.1262678395552</v>
       </c>
       <c r="B330" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2847.923512762813</v>
+        <v>49.1262678395552</v>
       </c>
       <c r="B331" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2847.923512762813</v>
+        <v>49.40960117288853</v>
       </c>
       <c r="B332" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2864.923512762813</v>
+        <v>49.40960117288853</v>
       </c>
       <c r="B333" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2864.923512762813</v>
+        <v>49.69293450622186</v>
       </c>
       <c r="B334" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2881.923512762813</v>
+        <v>49.69293450622186</v>
       </c>
       <c r="B335" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>2881.923512762813</v>
+        <v>49.97626783955519</v>
       </c>
       <c r="B336" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2898.923512762813</v>
+        <v>50.25960117288852</v>
       </c>
       <c r="B337" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>2898.923512762813</v>
+        <v>50.25960117288852</v>
       </c>
       <c r="B338" t="n">
-        <v>26.179838377015585</v>
+        <v>0.8499999999999943</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2915.923512762813</v>
+        <v>50.542934506221854</v>
       </c>
       <c r="B339" t="n">
-        <v>34.0</v>
+        <v>0.8499999999999943</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2915.923512762813</v>
+        <v>50.542934506221854</v>
       </c>
       <c r="B340" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>2932.923512762813</v>
+        <v>50.826267839555186</v>
       </c>
       <c r="B341" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2932.923512762813</v>
+        <v>50.826267839555186</v>
       </c>
       <c r="B342" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2949.923512762813</v>
+        <v>51.10960117288852</v>
       </c>
       <c r="B343" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2949.923512762813</v>
+        <v>51.10960117288852</v>
       </c>
       <c r="B344" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2966.923512762813</v>
+        <v>51.39293450622185</v>
       </c>
       <c r="B345" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2966.923512762813</v>
+        <v>51.39293450622185</v>
       </c>
       <c r="B346" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2983.923512762813</v>
+        <v>51.67626783955518</v>
       </c>
       <c r="B347" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2983.923512762813</v>
+        <v>51.67626783955518</v>
       </c>
       <c r="B348" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>3000.923512762813</v>
+        <v>51.95960117288851</v>
       </c>
       <c r="B349" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>3000.923512762813</v>
+        <v>51.95960117288851</v>
       </c>
       <c r="B350" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>3017.923512762813</v>
+        <v>52.24293450622184</v>
       </c>
       <c r="B351" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>3017.923512762813</v>
+        <v>52.24293450622184</v>
       </c>
       <c r="B352" t="n">
-        <v>26.179838377015585</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>3034.923512762813</v>
+        <v>52.526267839555175</v>
       </c>
       <c r="B353" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>3034.923512762813</v>
+        <v>52.526267839555175</v>
       </c>
       <c r="B354" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>3051.923512762813</v>
+        <v>52.809601172888506</v>
       </c>
       <c r="B355" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>3051.923512762813</v>
+        <v>52.809601172888506</v>
       </c>
       <c r="B356" t="n">
-        <v>34.0</v>
+        <v>0.445184797559925</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>3068.923512762813</v>
+        <v>53.09293450622184</v>
       </c>
       <c r="B357" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>3068.923512762813</v>
+        <v>53.09293450622184</v>
       </c>
       <c r="B358" t="n">
-        <v>34.0</v>
+        <v>0.42841658458770837</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>3085.923512762813</v>
+        <v>53.37626783955517</v>
       </c>
       <c r="B359" t="n">
-        <v>34.0</v>
+        <v>0.4240564337876833</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>3085.923512762813</v>
+        <v>53.37626783955517</v>
       </c>
       <c r="B360" t="n">
-        <v>26.179838377015585</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>3102.923512762813</v>
+        <v>53.6596011728885</v>
       </c>
       <c r="B361" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>3102.923512762813</v>
+        <v>53.6596011728885</v>
       </c>
       <c r="B362" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>3119.923512762813</v>
+        <v>53.94293450622183</v>
       </c>
       <c r="B363" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>3119.923512762813</v>
+        <v>53.94293450622183</v>
       </c>
       <c r="B364" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>3136.923512762813</v>
+        <v>54.22626783955516</v>
       </c>
       <c r="B365" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>3136.923512762813</v>
+        <v>54.22626783955516</v>
       </c>
       <c r="B366" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>3153.923512762813</v>
+        <v>54.509601172888495</v>
       </c>
       <c r="B367" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>3153.923512762813</v>
+        <v>54.509601172888495</v>
       </c>
       <c r="B368" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>3170.923512762813</v>
+        <v>54.792934506221826</v>
       </c>
       <c r="B369" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>3170.923512762813</v>
+        <v>54.792934506221826</v>
       </c>
       <c r="B370" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>3187.923512762813</v>
+        <v>55.07626783955516</v>
       </c>
       <c r="B371" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>3187.923512762813</v>
+        <v>55.07626783955516</v>
       </c>
       <c r="B372" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>3204.923512762813</v>
+        <v>55.35960117288849</v>
       </c>
       <c r="B373" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>3204.923512762813</v>
+        <v>55.35960117288849</v>
       </c>
       <c r="B374" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>3221.923512762813</v>
+        <v>55.64293450622182</v>
       </c>
       <c r="B375" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>3221.923512762813</v>
+        <v>55.64293450622182</v>
       </c>
       <c r="B376" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>3238.923512762813</v>
+        <v>55.92626783955515</v>
       </c>
       <c r="B377" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>3238.923512762813</v>
+        <v>55.92626783955515</v>
       </c>
       <c r="B378" t="n">
-        <v>26.179838377015585</v>
+        <v>0.44377842913333865</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>3255.923512762813</v>
+        <v>56.20960117288848</v>
       </c>
       <c r="B379" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>3255.923512762813</v>
+        <v>56.20960117288848</v>
       </c>
       <c r="B380" t="n">
-        <v>34.0</v>
+        <v>0.4232022690315205</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>3272.923512762813</v>
+        <v>56.492934506221815</v>
       </c>
       <c r="B381" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>3272.923512762813</v>
+        <v>56.492934506221815</v>
       </c>
       <c r="B382" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>3289.923512762813</v>
+        <v>56.776267839555146</v>
       </c>
       <c r="B383" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>3289.923512762813</v>
+        <v>56.776267839555146</v>
       </c>
       <c r="B384" t="n">
-        <v>34.0</v>
+        <v>0.5666666666666629</v>
       </c>
     </row>
     <row r="385">
